--- a/classification_report.xlsx
+++ b/classification_report.xlsx
@@ -54,11 +54,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -69,17 +69,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -94,22 +94,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,60 +122,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,29 +212,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -228,31 +228,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,49 +360,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,7 +378,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,79 +396,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,6 +446,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -466,21 +481,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,148 +533,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1010,13 +1010,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="16.75" customWidth="1"/>
@@ -1062,17 +1062,17 @@
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.9722</v>
+      <c r="B4" s="3">
+        <v>0.7222</v>
       </c>
       <c r="C4" s="2">
-        <v>0.97</v>
+        <v>0.82</v>
       </c>
       <c r="D4" s="2">
-        <v>0.97</v>
+        <v>0.72</v>
       </c>
       <c r="E4" s="2">
-        <v>0.97</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1113,18 +1113,24 @@
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3">
-        <v>0.7222</v>
+      <c r="B7" s="2">
+        <v>0.9722</v>
       </c>
       <c r="C7" s="2">
-        <v>0.82</v>
+        <v>0.97</v>
       </c>
       <c r="D7" s="2">
-        <v>0.72</v>
+        <v>0.97</v>
       </c>
       <c r="E7" s="2">
-        <v>0.67</v>
-      </c>
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
